--- a/Written Tasks/Sprint1 Meeting Notes.xlsx
+++ b/Written Tasks/Sprint1 Meeting Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvi\Desktop\Managing Software\msp-gotogro\Written Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AD1F1F-EB5A-44DD-ADEB-0D3C49F7FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCC3C33-546C-418A-997A-8654B4A0D795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE161C9E-8EDA-4A2D-81FF-C63524B9603F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Timeline</t>
   </si>
@@ -177,6 +177,81 @@
   </si>
   <si>
     <t>Working on confirm button as well</t>
+  </si>
+  <si>
+    <t>Busy on other assignments</t>
+  </si>
+  <si>
+    <t>Input sanitisation still not working, moved buttons to better use the space on sales interface.</t>
+  </si>
+  <si>
+    <t>Making confirm button for sales interface, coding in python.</t>
+  </si>
+  <si>
+    <t>Still working on confirm button.</t>
+  </si>
+  <si>
+    <t>Confirm button complete, helping replicate code for other group members.</t>
+  </si>
+  <si>
+    <t>Minor changes to UI, tab buttons, added page for reports to be done in Sprint 2.</t>
+  </si>
+  <si>
+    <t>Lowered refresh rate, still couldn't get it to ONLY refresh upon change, which would be ideal.</t>
+  </si>
+  <si>
+    <t>Busy with other assignments.</t>
+  </si>
+  <si>
+    <t>Added timestamps to tables, will do for others.</t>
+  </si>
+  <si>
+    <t>Added timestamps to all tables, working on filtering display by timestamp, so outdated orders are not displayed.</t>
+  </si>
+  <si>
+    <t>Display not quite working, syntax is difficult to work with. Working with Rabya to make it work.</t>
+  </si>
+  <si>
+    <t>Helping Cody work on the timestamp filtering for disaply views.</t>
+  </si>
+  <si>
+    <t>Member prepopulated fields working well, tested thoroughly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm button finished, member UI </t>
+  </si>
+  <si>
+    <t>Confirm button for member table finished.</t>
+  </si>
+  <si>
+    <t>Timestamp filtering working. Now to work on,</t>
+  </si>
+  <si>
+    <t>All tasks complete. Testing.</t>
+  </si>
+  <si>
+    <t>Designing imporved UI components with Nic, code review to make sure all buttons working.</t>
+  </si>
+  <si>
+    <t>Helping with cosmetic changes and testing.</t>
+  </si>
+  <si>
+    <t>Search field working. Working on modification UI.</t>
+  </si>
+  <si>
+    <t>Modification UI half working, some of the fields won't populate, need to have a look at the porper syntax.</t>
+  </si>
+  <si>
+    <t>Modification fields now populate correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales display table working, have to make price display with a dollar sign. </t>
+  </si>
+  <si>
+    <t>Dollar sign displayed.</t>
+  </si>
+  <si>
+    <t>Finished confirm button, interface testing to make sure all the buttons work as intended.</t>
   </si>
 </sst>
 </file>
@@ -253,9 +328,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,6 +347,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,36 +669,36 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="8" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="9" customWidth="1"/>
-    <col min="7" max="11" width="17.85546875" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="24.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="17.85546875" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,7 +714,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -659,154 +734,214 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="G4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
